--- a/BackTest/2020-01-25 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-25 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
         <v>-7417195.367414784</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7552970.371414783</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7563306.107614784</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7563306.107614784</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7563306.107614784</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7575979.107614784</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7588651.279614784</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7605237.594514783</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -6556,17 +6556,11 @@
         <v>-15930941.67380233</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>4.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6599,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6636,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6747,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6895,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6932,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6969,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7043,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7080,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7154,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7187,17 +7117,11 @@
         <v>-13269492.39600233</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>4.129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7226,17 +7150,11 @@
         <v>-16258231.39600233</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7265,17 +7183,11 @@
         <v>-16221226.38910233</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7304,17 +7216,11 @@
         <v>-16337596.23520233</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7343,17 +7249,11 @@
         <v>-17576676.09900233</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7419,17 +7315,11 @@
         <v>-18129993.57300233</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>4.087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7462,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7499,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7536,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7569,7 +7447,7 @@
         <v>-21966305.52986371</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>4.005</v>
@@ -7577,7 +7455,7 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7608,7 +7486,7 @@
         <v>-21963091.86316371</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>4.003</v>
@@ -7647,7 +7525,7 @@
         <v>-21351759.9132637</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>4.005</v>
@@ -7686,7 +7564,7 @@
         <v>-21824817.4849637</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>4.04</v>
@@ -7725,7 +7603,7 @@
         <v>-21824617.3073637</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>4.002</v>
@@ -7764,9 +7642,11 @@
         <v>-21824617.3073637</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -7801,9 +7681,11 @@
         <v>-21875756.8302637</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -7838,9 +7720,11 @@
         <v>-21875587.7402637</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>4.003</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -7875,9 +7759,11 @@
         <v>-22399300.5250637</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -7912,9 +7798,11 @@
         <v>-22295539.85366371</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>4.003</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -7949,9 +7837,11 @@
         <v>-22295370.76366371</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>4.026</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -7986,9 +7876,11 @@
         <v>-22295370.76366371</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>4.083</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8023,9 +7915,11 @@
         <v>-22295241.75386371</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>4.083</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -9651,7 +9545,7 @@
         <v>-18649721.3706939</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9725,7 +9619,7 @@
         <v>-20978188.35719389</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9762,7 +9656,7 @@
         <v>-20978188.35719389</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9799,7 +9693,7 @@
         <v>-20978188.35719389</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9873,7 +9767,7 @@
         <v>-21610196.7000939</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11538,16 +11432,18 @@
         <v>-17748705.7609293</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L321" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
       <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
@@ -11573,11 +11469,15 @@
         <v>-17777433.9342293</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11606,11 +11506,15 @@
         <v>-17826140.7462293</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11639,11 +11543,15 @@
         <v>-13068151.6053293</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11672,11 +11580,15 @@
         <v>-9254313.674729301</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11705,11 +11617,15 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11738,11 +11654,15 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11771,11 +11691,15 @@
         <v>-9146695.862729302</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11804,11 +11728,15 @@
         <v>-8658755.048729302</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11837,11 +11765,15 @@
         <v>-8852283.205129303</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11870,11 +11802,15 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11903,11 +11839,15 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11936,11 +11876,15 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11969,11 +11913,15 @@
         <v>-9487265.248929303</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12006,7 +11954,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12039,7 +11991,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12068,14 +12024,16 @@
         <v>-9055538.762533633</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
@@ -12101,7 +12059,7 @@
         <v>-9055084.034933632</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12134,7 +12092,7 @@
         <v>-9239449.408433633</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12167,7 +12125,7 @@
         <v>-10809671.36763363</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12200,7 +12158,7 @@
         <v>-11026149.87213363</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12233,7 +12191,7 @@
         <v>-10965899.87213363</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12266,7 +12224,7 @@
         <v>-10965526.24573363</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12299,7 +12257,7 @@
         <v>-11095526.24573363</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12332,7 +12290,7 @@
         <v>-11198238.26183363</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12365,7 +12323,7 @@
         <v>-11200498.85253363</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12398,7 +12356,7 @@
         <v>-11220153.90713364</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12431,7 +12389,7 @@
         <v>-11546116.16903364</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12464,7 +12422,7 @@
         <v>-11542834.10193364</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12497,7 +12455,7 @@
         <v>-11506225.36573364</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12563,7 +12521,7 @@
         <v>-11506225.36573364</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12596,7 +12554,7 @@
         <v>-11509067.36573364</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12629,7 +12587,7 @@
         <v>-11508756.32373364</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12662,7 +12620,7 @@
         <v>-11508756.32373364</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12695,7 +12653,7 @@
         <v>-11538756.32373364</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12728,7 +12686,7 @@
         <v>-11538644.32373364</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12761,7 +12719,7 @@
         <v>-11538644.32373364</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12794,7 +12752,7 @@
         <v>-11441034.20143364</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12827,7 +12785,7 @@
         <v>-9803435.038833637</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12860,7 +12818,7 @@
         <v>-9755945.038833637</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12893,7 +12851,7 @@
         <v>-9323534.158133637</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12926,7 +12884,7 @@
         <v>-8950564.718833636</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12959,7 +12917,7 @@
         <v>-8950564.718833636</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12992,7 +12950,7 @@
         <v>-8979571.572133636</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13025,7 +12983,7 @@
         <v>-9760617.511533637</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13058,7 +13016,7 @@
         <v>-9751103.527033636</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13091,7 +13049,7 @@
         <v>-10729208.80993364</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13124,7 +13082,7 @@
         <v>-10731496.39623364</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13157,7 +13115,7 @@
         <v>-10723241.09553364</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13190,7 +13148,7 @@
         <v>-10723386.15653364</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13223,7 +13181,7 @@
         <v>-10736078.57553364</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13256,7 +13214,7 @@
         <v>-10706356.11043364</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13289,7 +13247,7 @@
         <v>-10706356.11043364</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13322,7 +13280,7 @@
         <v>-10706356.11043364</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13355,7 +13313,7 @@
         <v>-10706356.11043364</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13388,7 +13346,7 @@
         <v>-10706356.11043364</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13421,7 +13379,7 @@
         <v>-10923075.49453364</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13454,7 +13412,7 @@
         <v>-10923075.49453364</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13487,7 +13445,7 @@
         <v>-10910053.19683364</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13520,7 +13478,7 @@
         <v>-10908516.62913364</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13553,7 +13511,7 @@
         <v>-10914535.01033364</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13586,7 +13544,7 @@
         <v>-10914425.01033364</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13619,7 +13577,7 @@
         <v>-10957351.78083364</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13652,7 +13610,7 @@
         <v>-10957351.78083364</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13685,7 +13643,7 @@
         <v>-10800479.11593364</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13718,7 +13676,7 @@
         <v>-14207231.29183364</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13751,7 +13709,7 @@
         <v>-14857817.17203364</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13784,7 +13742,7 @@
         <v>-14857703.17203364</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13817,7 +13775,7 @@
         <v>-15042642.35843364</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13850,7 +13808,7 @@
         <v>-15042642.35843364</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13883,7 +13841,7 @@
         <v>-15042862.69953364</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13916,7 +13874,7 @@
         <v>-15029200.37463364</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13949,7 +13907,7 @@
         <v>-15029600.37463364</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13982,7 +13940,7 @@
         <v>-16676336.42783364</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14081,7 +14039,7 @@
         <v>-18370433.16073364</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14114,7 +14072,7 @@
         <v>-18372698.03193364</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14147,7 +14105,7 @@
         <v>-18432667.73873364</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14180,7 +14138,7 @@
         <v>-18375901.51053364</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -16292,7 +16250,7 @@
         <v>-19762520.21303364</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -20054,11 +20012,17 @@
         <v>-25620165.21853694</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>4.203</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20091,7 +20055,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20124,7 +20092,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20157,7 +20129,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20190,7 +20166,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20223,7 +20203,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20256,7 +20240,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20289,7 +20277,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20322,7 +20314,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20355,7 +20351,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20388,7 +20388,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20421,7 +20425,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20454,7 +20462,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20487,7 +20499,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20520,7 +20536,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20553,7 +20573,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20586,7 +20610,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20619,7 +20647,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20652,7 +20684,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20685,7 +20721,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20718,7 +20758,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20751,7 +20795,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20784,7 +20832,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20817,7 +20869,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20850,7 +20906,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20883,7 +20943,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20912,11 +20976,17 @@
         <v>-25704216.98013695</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>4.133</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20949,7 +21019,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20982,7 +21056,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21015,7 +21093,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21048,7 +21130,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21081,7 +21167,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21114,7 +21204,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21147,7 +21241,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21180,7 +21278,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21213,7 +21315,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21246,7 +21352,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21279,7 +21389,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21312,7 +21426,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21345,7 +21463,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21374,11 +21496,17 @@
         <v>-25909763.88803694</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>4.134</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21407,11 +21535,17 @@
         <v>-25905811.23603695</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>4.142</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21444,7 +21578,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21477,7 +21615,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21510,7 +21652,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21543,7 +21689,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21576,7 +21726,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21609,7 +21763,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21642,7 +21800,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21675,7 +21837,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21708,7 +21874,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21741,7 +21911,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21774,7 +21948,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21807,7 +21985,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21840,7 +22022,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21869,11 +22055,17 @@
         <v>-27210393.7670899</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>4.11</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21902,11 +22094,17 @@
         <v>-27200481.6953899</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>4.101</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21935,11 +22133,17 @@
         <v>-26994825.5810899</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>4.104</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21968,11 +22172,17 @@
         <v>-26988012.85938989</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>4.124</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22001,11 +22211,17 @@
         <v>-26791287.81334106</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>4.125</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22034,15 +22250,13 @@
         <v>-26990585.48534105</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>4.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L639" t="n">
@@ -22295,9 +22509,11 @@
         <v>-26942170.33364105</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>4.191</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22369,9 +22585,11 @@
         <v>-26932717.88064105</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>4.192</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22443,9 +22661,11 @@
         <v>-27487542.18854105</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22480,9 +22700,11 @@
         <v>-27480349.76184105</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22517,9 +22739,11 @@
         <v>-27462865.64884105</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>4.103</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22554,9 +22778,11 @@
         <v>-27484653.24184105</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>4.107</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22591,9 +22817,11 @@
         <v>-27476349.24184105</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22628,9 +22856,11 @@
         <v>-27219618.41614105</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>4.15</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22813,9 +23043,11 @@
         <v>-27187202.73854105</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>4.186</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22887,9 +23119,11 @@
         <v>-27259962.13314105</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>4.191</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22924,9 +23158,11 @@
         <v>-27259962.13314105</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>4.111</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23072,9 +23308,11 @@
         <v>-28306189.57944104</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23109,9 +23347,11 @@
         <v>-28305076.02764104</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>4.187</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23146,9 +23386,11 @@
         <v>-28305564.02764104</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>4.192</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -23183,9 +23425,11 @@
         <v>-28390531.87704104</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>4.112</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -23220,9 +23464,11 @@
         <v>-28390531.87704104</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>4.111</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -23257,9 +23503,11 @@
         <v>-28128128.71364104</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>4.111</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23294,9 +23542,11 @@
         <v>-28126885.19464104</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>4.112</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23331,9 +23581,11 @@
         <v>-28121872.03704104</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>4.116</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23368,9 +23620,11 @@
         <v>-28121872.03704104</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23442,9 +23696,11 @@
         <v>-28119832.94524104</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>4.113</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -23701,9 +23957,11 @@
         <v>-29599577.99804104</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>4.102</v>
+      </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -23738,9 +23996,11 @@
         <v>-29606550.38604104</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>4.176</v>
+      </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23775,9 +24035,11 @@
         <v>-29619237.35704104</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>4.175</v>
+      </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23812,9 +24074,11 @@
         <v>-29635029.12104104</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>4.171</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23960,9 +24224,11 @@
         <v>-29658734.1645471</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>4.12</v>
+      </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24071,9 +24337,11 @@
         <v>-29654183.59083968</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>4.12</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24108,9 +24376,11 @@
         <v>-30729086.61723968</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -24145,7 +24415,7 @@
         <v>-30718506.94723968</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>4.12</v>
@@ -24184,9 +24454,11 @@
         <v>-30716106.94723968</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>4.121</v>
+      </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -24221,9 +24493,11 @@
         <v>-30716106.94723968</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -24258,9 +24532,11 @@
         <v>-30710663.75723968</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -24295,9 +24571,11 @@
         <v>-30986637.58673968</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>4.124</v>
+      </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -24406,9 +24684,11 @@
         <v>-30995250.27475047</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>4.169</v>
+      </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -24776,11 +25056,9 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>4.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24815,11 +25093,9 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>4.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24854,11 +25130,9 @@
         <v>-30308747.20315047</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>4.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24893,11 +25167,9 @@
         <v>-30297494.68855046</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
-      </c>
-      <c r="I716" t="n">
-        <v>4.189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24932,11 +25204,9 @@
         <v>-30298601.83955047</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24971,11 +25241,9 @@
         <v>-30032470.88615046</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
-      </c>
-      <c r="I718" t="n">
-        <v>4.227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -25010,11 +25278,9 @@
         <v>-30111270.94465046</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
-      </c>
-      <c r="I719" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25049,11 +25315,9 @@
         <v>-30115947.28965046</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
-      </c>
-      <c r="I720" t="n">
-        <v>4.229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -25088,11 +25352,9 @@
         <v>-30114861.69765046</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
-      </c>
-      <c r="I721" t="n">
-        <v>4.226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -25127,11 +25389,9 @@
         <v>-30052670.88955046</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
-      </c>
-      <c r="I722" t="n">
-        <v>4.228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -25166,11 +25426,9 @@
         <v>-29902801.92395046</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
-      </c>
-      <c r="I723" t="n">
-        <v>4.229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -25205,11 +25463,9 @@
         <v>-29693630.06085046</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -25244,11 +25500,9 @@
         <v>-29638520.49675046</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>4.298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -25579,11 +25833,9 @@
         <v>-29439012.77105046</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25618,11 +25870,9 @@
         <v>-29437719.98205046</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>4.329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25657,11 +25907,9 @@
         <v>-29437719.98205046</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25696,11 +25944,9 @@
         <v>-29441847.07005046</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
-      </c>
-      <c r="I737" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25735,11 +25981,9 @@
         <v>-29458065.34995046</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>4.329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25774,11 +26018,9 @@
         <v>-29509255.02026305</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>4.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25813,7 +26055,7 @@
         <v>-30047656.77956305</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>4.21</v>
@@ -25852,7 +26094,7 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>4.149</v>
@@ -25891,7 +26133,7 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>4.16</v>
@@ -25930,7 +26172,7 @@
         <v>-30031241.22976305</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>4.16</v>
@@ -25969,7 +26211,7 @@
         <v>-31145113.61417654</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I744" t="n">
         <v>4.128</v>
@@ -26008,7 +26250,7 @@
         <v>-31833341.79047654</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>4.122</v>
@@ -26047,7 +26289,7 @@
         <v>-31828566.05147654</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>4.12</v>
@@ -26086,7 +26328,7 @@
         <v>-31585403.70837654</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>4.122</v>
@@ -26125,7 +26367,7 @@
         <v>-31585403.70837654</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>4.139</v>
@@ -26164,7 +26406,7 @@
         <v>-31586870.68537654</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>4.139</v>
@@ -26203,7 +26445,7 @@
         <v>-31586870.68537654</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>4.138</v>
@@ -26242,7 +26484,7 @@
         <v>-31540929.02149003</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>4.138</v>
@@ -26281,7 +26523,7 @@
         <v>-31540728.12149004</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>4.139</v>
@@ -26320,7 +26562,7 @@
         <v>-31543110.26249003</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>4.248</v>
@@ -26359,9 +26601,11 @@
         <v>-31548507.35949003</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>4.24</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26396,9 +26640,11 @@
         <v>-31551107.83049003</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>4.228</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26433,9 +26679,11 @@
         <v>-31536487.95549003</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>4.222</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26470,9 +26718,11 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>4.228</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26507,9 +26757,11 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>4.17</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26544,9 +26796,11 @@
         <v>-31685583.60049003</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>4.17</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26581,7 +26835,7 @@
         <v>-31656847.23829003</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>4.181</v>
@@ -26620,9 +26874,11 @@
         <v>-31707008.48669003</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>4.256</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26657,7 +26913,7 @@
         <v>-31707008.48669003</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>4.184</v>
@@ -26696,7 +26952,7 @@
         <v>-31706765.58069003</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>4.184</v>
@@ -26735,7 +26991,7 @@
         <v>-31703217.09769003</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>4.191</v>
@@ -26774,9 +27030,11 @@
         <v>-31710651.18869003</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>4.201</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26811,9 +27069,11 @@
         <v>-31671631.13039003</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26848,9 +27108,11 @@
         <v>-31653833.29509003</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>4.25</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26885,9 +27147,11 @@
         <v>-31593540.71139003</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>4.251</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26922,7 +27186,7 @@
         <v>-31593540.71139003</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>4.261</v>
@@ -26998,11 +27262,9 @@
         <v>-31235597.42629003</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
-      </c>
-      <c r="I771" t="n">
-        <v>4.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -27074,9 +27336,11 @@
         <v>-31241203.79189003</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>4.256</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -27089,6 +27353,6 @@
       <c r="M773" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-25 BackTest TMTG.xlsx
@@ -1276,7 +1276,7 @@
         <v>-7383041.600214784</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7552970.371414783</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7569049.675414784</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7588651.279614784</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-7588051.748314784</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-7605237.594514783</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-7674190.845014784</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-7704260.052814784</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-7749654.798314784</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-7749539.798314784</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-12020500.46278525</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-12188526.33798525</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-12188526.33798525</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-17154289.86683305</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-16902305.10107937</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-17593908.12436899</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-16436967.2520939</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-16436967.2520939</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-18076981.2293939</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-21675294.1496939</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-21722375.1824939</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-21719817.40043278</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-21809728.91193279</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-9254313.674729301</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-9007528.775129301</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-9146695.862729302</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-8658755.048729302</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-8852283.205129303</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-9368600.693929303</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-9487265.248929303</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9557418.170129303</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9498126.646433633</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-9055538.762533633</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-9055084.034933632</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9239449.408433633</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-10809671.36763363</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-11026149.87213363</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-11200498.85253363</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-8950564.718833636</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-8979571.572133636</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-9760617.511533637</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-9751103.527033636</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-10729208.80993364</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-10731496.39623364</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-10723241.09553364</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -23122,11 +23122,17 @@
         <v>-29659228.69004104</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23159,7 +23165,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23192,7 +23202,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23225,7 +23239,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23258,7 +23276,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23309,17 @@
         <v>-29654183.59083968</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>4.12</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23348,17 @@
         <v>-30729086.61723968</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +23387,17 @@
         <v>-30718506.94723968</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>4.12</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23426,17 @@
         <v>-30716106.94723968</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>4.121</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23465,17 @@
         <v>-30716106.94723968</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23504,17 @@
         <v>-30710663.75723968</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23543,17 @@
         <v>-30986637.58673968</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>4.124</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23582,17 @@
         <v>-30985523.19825047</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23621,17 @@
         <v>-30989539.52875047</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>4.17</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23660,17 @@
         <v>-30995250.27475047</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>4.169</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +23699,17 @@
         <v>-30594337.74405047</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>4.165</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +23738,17 @@
         <v>-30581089.75485047</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>4.173</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23683,11 +23777,17 @@
         <v>-30577523.96385046</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23716,11 +23816,17 @@
         <v>-30588539.54465047</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>4.186</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +23855,17 @@
         <v>-30576714.75865047</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>4.179</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23782,11 +23894,17 @@
         <v>-30574487.66565047</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>4.183</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23815,11 +23933,17 @@
         <v>-30581462.70765047</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>4.184</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23848,11 +23972,17 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>4.18</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23881,11 +24011,17 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23914,11 +24050,17 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23947,11 +24089,17 @@
         <v>-30366758.19435047</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23980,11 +24128,17 @@
         <v>-30308747.20315047</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +24167,17 @@
         <v>-30297494.68855046</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>4.189</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24046,11 +24206,17 @@
         <v>-30298601.83955047</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>4.23</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +24245,17 @@
         <v>-30032470.88615046</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>4.227</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24112,11 +24284,17 @@
         <v>-30111270.94465046</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>4.23</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24145,11 +24323,17 @@
         <v>-30115947.28965046</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>4.229</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +24362,17 @@
         <v>-30114861.69765046</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>4.226</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24211,11 +24401,17 @@
         <v>-30052670.88955046</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>4.228</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24244,11 +24440,17 @@
         <v>-29902801.92395046</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>4.229</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24277,11 +24479,17 @@
         <v>-29693630.06085046</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>4.23</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24310,11 +24518,17 @@
         <v>-29638520.49675046</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>4.298</v>
+      </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24561,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24598,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24635,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24672,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +24709,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +24746,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24541,11 +24779,17 @@
         <v>-29434532.10405046</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>4.325</v>
+      </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +24822,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +24859,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +24892,17 @@
         <v>-29437719.98205046</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>4.329</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24931,17 @@
         <v>-29437719.98205046</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24970,17 @@
         <v>-29441847.07005046</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24739,11 +25009,17 @@
         <v>-29458065.34995046</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>4.329</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +25048,17 @@
         <v>-29509255.02026305</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>4.252</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +25087,17 @@
         <v>-30047656.77956305</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>4.21</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +25126,17 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>4.149</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25165,17 @@
         <v>-29781261.50346305</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>4.16</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25204,17 @@
         <v>-30031241.22976305</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>4.16</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25243,17 @@
         <v>-31145113.61417654</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>4.128</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25282,17 @@
         <v>-31833341.79047654</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>4.122</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25008,10 +25326,12 @@
       <c r="I746" t="n">
         <v>4.12</v>
       </c>
-      <c r="J746" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25045,12 +25365,10 @@
       <c r="I747" t="n">
         <v>4.122</v>
       </c>
-      <c r="J747" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L747" t="n">
@@ -25086,12 +25404,10 @@
       <c r="I748" t="n">
         <v>4.139</v>
       </c>
-      <c r="J748" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L748" t="n">
@@ -25127,10 +25443,12 @@
       <c r="I749" t="n">
         <v>4.139</v>
       </c>
-      <c r="J749" t="n">
-        <v>4.139</v>
-      </c>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25164,12 +25482,10 @@
       <c r="I750" t="n">
         <v>4.138</v>
       </c>
-      <c r="J750" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L750" t="n">
@@ -25205,12 +25521,10 @@
       <c r="I751" t="n">
         <v>4.138</v>
       </c>
-      <c r="J751" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L751" t="n">
@@ -25246,9 +25560,7 @@
       <c r="I752" t="n">
         <v>4.139</v>
       </c>
-      <c r="J752" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25282,12 +25594,12 @@
         <v>-31543110.26249003</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>4.248</v>
+      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25324,9 +25636,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25360,12 +25670,12 @@
         <v>-31551107.83049003</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>4.228</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25399,12 +25709,12 @@
         <v>-31536487.95549003</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>4.222</v>
+      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25438,12 +25748,12 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>4.228</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25477,12 +25787,12 @@
         <v>-31685828.31249003</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25521,9 +25831,7 @@
       <c r="I759" t="n">
         <v>4.17</v>
       </c>
-      <c r="J759" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25557,12 +25865,12 @@
         <v>-31656847.23829003</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>4.181</v>
+      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25596,12 +25904,12 @@
         <v>-31707008.48669003</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>4.256</v>
+      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25635,12 +25943,12 @@
         <v>-31707008.48669003</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>4.184</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25674,12 +25982,12 @@
         <v>-31706765.58069003</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>4.184</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25713,12 +26021,12 @@
         <v>-31703217.09769003</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>4.191</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25752,12 +26060,12 @@
         <v>-31710651.18869003</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>4.201</v>
+      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25791,12 +26099,12 @@
         <v>-31671631.13039003</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25830,12 +26138,12 @@
         <v>-31653833.29509003</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>4.139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25872,9 +26180,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25911,9 +26217,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25950,9 +26254,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25989,9 +26291,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26028,9 +26328,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26067,9 +26365,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>4.139</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
